--- a/Resultados/Mercado mundial - Caucho natural en forma primaria.xlsx
+++ b/Resultados/Mercado mundial - Caucho natural en forma primaria.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Thailand" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Indonesia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Côte d'Ivoire" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Viet Nam" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="China, mainland" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tailandia" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Côte d'Ivoire" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Viet Nam" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,10 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -408,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -434,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -490,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -516,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -572,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -598,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -641,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -654,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -680,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -723,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -736,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -762,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Thailand'!$B$12:$B$73</f>
+              <f>'Tailandia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Thailand'!$C$12:$C$73</f>
+              <f>'Tailandia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -818,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -844,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -900,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -926,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Côte d''Ivoire'!$B$12:$B$73</f>
+              <f>'Côte d''Ivoire'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Côte d''Ivoire'!$C$12:$C$73</f>
+              <f>'Côte d''Ivoire'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -982,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1008,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Viet Nam'!$B$12:$B$73</f>
+              <f>'Viet Nam'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Viet Nam'!$C$12:$C$73</f>
+              <f>'Viet Nam'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1064,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1090,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1146,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1164,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1204,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1216,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1234,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1274,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1286,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1304,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1344,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1356,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1374,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1414,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1426,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1441,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1463,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1478,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1493,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1515,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1530,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1545,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1567,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1582,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1597,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1619,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1634,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1649,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1671,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2012,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2061,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2140,10 +2138,10 @@
         <v>13576507</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>14757135.79</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.087</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1107223.9</v>
@@ -2162,10 +2160,10 @@
         <v>13195514</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.1069</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>14605515.94</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.1069</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1489552.08</v>
@@ -2184,10 +2182,10 @@
         <v>13205252</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.1121</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>14686160.8</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.1121</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1439999.2</v>
@@ -2206,10 +2204,10 @@
         <v>12965759</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.0986</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>14244772.23</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.0986</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1405738.63</v>
@@ -2228,10 +2226,10 @@
         <v>12430089</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.1624</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>14448473.6</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.1624</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1292158.25</v>
@@ -2250,10 +2248,10 @@
         <v>12048371</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.1752</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>14158993.66</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.1752</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1381788.28</v>
@@ -2272,10 +2270,10 @@
         <v>11663369</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.1843</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>13812910.21</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.1843</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1267024.05</v>
@@ -2294,10 +2292,10 @@
         <v>11467822</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.1789</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>13519064.06</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.1789</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1172682.85</v>
@@ -2316,10 +2314,10 @@
         <v>11304994</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.1734</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>13265318.29</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.1734</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1196130.7</v>
@@ -2338,10 +2336,10 @@
         <v>11116410</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.1954</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>13288231.27</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.1954</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1268199.24</v>
@@ -2360,10 +2358,10 @@
         <v>10664597</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.2221</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>13033299.92</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.2221</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1094300</v>
@@ -2382,10 +2380,10 @@
         <v>10171422</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.2411</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>12623672.43</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.2411</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1032232</v>
@@ -2404,10 +2402,10 @@
         <v>9481170</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.2181</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>11548782.6</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.2181</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>975316</v>
@@ -2426,10 +2424,10 @@
         <v>9322839</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.1557</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10774029</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.1557</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1027962</v>
@@ -2448,10 +2446,10 @@
         <v>9154077</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.1163</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10218467.54</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.1163</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1104422</v>
@@ -2470,10 +2468,10 @@
         <v>9307274</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.1512</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>10714865.46</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.1512</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1145114</v>
@@ -2492,10 +2490,10 @@
         <v>8567278</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.2362</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>10590458.65</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.2362</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1204516</v>
@@ -2514,10 +2512,10 @@
         <v>8360972</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.2395</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>10363033.07</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.2395</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1124613</v>
@@ -2536,10 +2534,10 @@
         <v>8816352</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.0802</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>9523351.859999999</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.0802</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1002049</v>
@@ -2558,10 +2556,10 @@
         <v>8044280</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.1512</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>9260420.109999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.1512</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1056450</v>
@@ -2580,10 +2578,10 @@
         <v>7899821</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.0646</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>8410302.699999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.0646</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>917586</v>
@@ -2602,10 +2600,10 @@
         <v>7766542</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.9937999999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>7718453.48</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.9937999999999999</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>934587</v>
@@ -2624,10 +2622,10 @@
         <v>7702246</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7483207.9</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.9716</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>992967</v>
@@ -2646,10 +2644,10 @@
         <v>7462279</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.9507000000000001</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>7094492.53</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.9507000000000001</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1042905.51</v>
@@ -2668,10 +2666,10 @@
         <v>7296365</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.9227000000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6732480.77</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.9227000000000001</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>733130.39</v>
@@ -2690,10 +2688,10 @@
         <v>7253853</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.9055</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6568417.31</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.9055</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>644898</v>
@@ -2712,10 +2710,10 @@
         <v>7215984</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.9026000000000001</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>6512853.86</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.9026000000000001</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>495834.7</v>
@@ -2734,10 +2732,10 @@
         <v>7095420</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.8943</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6345759.76</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.8943</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>524453.9300000001</v>
@@ -2756,10 +2754,10 @@
         <v>7068143</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.8599</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6077753.02</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.8599</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>457059.23</v>
@@ -2778,10 +2776,10 @@
         <v>6860762</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.8483999999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5820598.13</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.8483999999999999</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>390487.21</v>
@@ -2800,10 +2798,10 @@
         <v>6824095</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.8214</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>5605260.08</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.8214</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>384514</v>
@@ -2822,10 +2820,10 @@
         <v>6629406</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.8172</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5417798.41</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.8172</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>356581</v>
@@ -2844,10 +2842,10 @@
         <v>6505774</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7965</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5181723.67</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7965</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>346425</v>
@@ -2866,10 +2864,10 @@
         <v>6524444</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.8008999999999999</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>5225364</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.8008999999999999</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>316179</v>
@@ -2888,10 +2886,10 @@
         <v>6455238</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.7968999999999999</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5143902</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.7968999999999999</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>426494</v>
@@ -2910,10 +2908,10 @@
         <v>6284894</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.8146</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5119374</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.8146</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>405911</v>
@@ -2932,10 +2930,10 @@
         <v>6202752</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.7777999999999999</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4824452</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.7777999999999999</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>299451</v>
@@ -2954,10 +2952,10 @@
         <v>5994647</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.7702</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4616828</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.7702</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>273464</v>
@@ -2976,10 +2974,10 @@
         <v>5932797</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.7159</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4247001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.7159</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>243373</v>
@@ -2998,10 +2996,10 @@
         <v>5577805</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.7352000000000001</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4100807</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.7352000000000001</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>242146</v>
@@ -3020,10 +3018,10 @@
         <v>5536149</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.7289</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>4035568</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.7289</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>239945</v>
@@ -3042,10 +3040,10 @@
         <v>5520018</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.6818</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3763673</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.6818</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>219508</v>
@@ -3064,10 +3062,10 @@
         <v>5388271</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.6968</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3754740</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.6968</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>226720</v>
@@ -3086,10 +3084,10 @@
         <v>5382587</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.6962999999999999</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3748108</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.6962999999999999</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>214729</v>
@@ -3108,10 +3106,10 @@
         <v>5623976</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.6757000000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3800000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.6757000000000001</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>236617</v>
@@ -3130,10 +3128,10 @@
         <v>5433481</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.6762</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>3674133</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.6762</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>223202</v>
@@ -3152,10 +3150,10 @@
         <v>5364701</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.6722</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3606015</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.6722</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>235474</v>
@@ -3174,10 +3172,10 @@
         <v>5393247</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.6631</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3576326</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.6631</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>232163</v>
@@ -3196,10 +3194,10 @@
         <v>5187221</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.6303</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3269255</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.6303</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>207226</v>
@@ -3218,10 +3216,10 @@
         <v>5289063</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.6356000000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3361652</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.6356000000000001</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>232035</v>
@@ -3240,10 +3238,10 @@
         <v>5305485</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.6417</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>3404407</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.6417</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>247425</v>
@@ -3262,10 +3260,10 @@
         <v>4995756</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.6123</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>3058785</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.6123</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>263497</v>
@@ -3284,10 +3282,10 @@
         <v>4921659</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.6169</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>3036401</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.6169</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>248735</v>
@@ -3306,10 +3304,10 @@
         <v>4621270</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.6462</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2986300</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.6462</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>241380</v>
@@ -3328,10 +3326,10 @@
         <v>4654764</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.6272000000000001</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2919332</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.6272000000000001</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>241243</v>
@@ -3350,10 +3348,10 @@
         <v>4336252</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.6161</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2671760</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.6161</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>229142</v>
@@ -3372,10 +3370,10 @@
         <v>4280446</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.5779</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2473498</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.5779</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>204483</v>
@@ -3393,10 +3391,10 @@
         <v>4297109</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.5751000000000001</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2471089</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.5751000000000001</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>190954</v>
@@ -3414,10 +3412,10 @@
         <v>4396958</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.5422</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2383817</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.5422</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>184163</v>
@@ -3435,10 +3433,10 @@
         <v>4205949</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.5451</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2292485</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.5451</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>184123</v>
@@ -3456,10 +3454,10 @@
         <v>4175782</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.5324</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2223002</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.5324</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>166876</v>
@@ -3477,10 +3475,10 @@
         <v>4065498</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.5311</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2159128</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.5311</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>170894</v>
@@ -3498,10 +3496,10 @@
         <v>3879860</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.5464</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2120070</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.5464</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>153237</v>
@@ -3788,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3884,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3940,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3968,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Camboya</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3982,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Filipinas</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3996,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4010,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Lao People's Democratic Republic</t>
+          <t>República Democrática Popular Lao</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4024,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>90713.36</v>
+        <v>1386210.089999998</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.006147084453981297</v>
+        <v>0.09393490103542634</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1295496.729999999</v>
+        <v>14757135.79</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.08778781658144508</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>14757135.79</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4071,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4127,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4226,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4282,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4296,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4310,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4338,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Camerún</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4366,44 +4355,36 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>745.14</v>
+        <v>21266.80000000005</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.0004230748043879456</v>
+        <v>0.01207484130493274</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>20521.66000000015</v>
+        <v>1761248.82</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.01165176650054485</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>1761248.82</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4415,126 +4396,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="29" t="n"/>
-      <c r="D26" s="36" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="35" t="n"/>
+      <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="37" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="37" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="37" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="37" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="37" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="37" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="37" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="37" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="38" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="38" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="38" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="38" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="38" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="38" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="38" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="38" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="38" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4556,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4652,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4666,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4680,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4708,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4722,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4750,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4764,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4778,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4831,58 +4812,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="39" t="n"/>
+      <c r="C26" s="37" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="39" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="39" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="39" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="39" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="39" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="39" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="39" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="39" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="39" t="n"/>
-      <c r="D35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="39" t="n"/>
-      <c r="D36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4951,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5030,10 +5011,10 @@
         <v>3533107</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.3323</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>4707264</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.3323</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1670.1</v>
@@ -5052,10 +5033,10 @@
         <v>3524655</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.3578</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>4785779.31</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.3578</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1103.25</v>
@@ -5074,10 +5055,10 @@
         <v>3516091</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.3914</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>4892451.18</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.3914</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2052.59</v>
@@ -5096,10 +5077,10 @@
         <v>3517511</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.3816</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>4859666.1</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.3816</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1913.63</v>
@@ -5118,10 +5099,10 @@
         <v>3272927</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.4788</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>4839952</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.4788</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>981.97</v>
@@ -5140,10 +5121,10 @@
         <v>3203696</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.5025</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4813527</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.5025</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1323.24</v>
@@ -5162,10 +5143,10 @@
         <v>3057079</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4503101</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.473</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2258.07</v>
@@ -5184,10 +5165,10 @@
         <v>3047586</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.4828</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>4519000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.4828</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2712.49</v>
@@ -5206,10 +5187,10 @@
         <v>3015361</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.4811</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>4466063</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.4811</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3565.48</v>
@@ -5228,10 +5209,10 @@
         <v>2915813</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>4566260</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.566</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3245.84</v>
@@ -5250,10 +5231,10 @@
         <v>2634034</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.6344</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>4305069</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.6344</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2079</v>
@@ -5272,10 +5253,10 @@
         <v>2519760</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.6428</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4139403</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.6428</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3024</v>
@@ -5294,10 +5275,10 @@
         <v>2042502</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.6396</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3348897</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.6396</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2795</v>
@@ -5316,10 +5297,10 @@
         <v>1929257</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.5818</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3051781</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.5818</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>3004</v>
@@ -5338,10 +5319,10 @@
         <v>1856072</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3090280</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.665</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2541</v>
@@ -5360,10 +5341,10 @@
         <v>1819502</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.7405</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>3166910</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.7405</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2448</v>
@@ -5382,10 +5363,10 @@
         <v>1766849</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.7116</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3024207</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.7116</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>555</v>
@@ -5404,10 +5385,10 @@
         <v>1742896</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.7617</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3070520</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.7617</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>975</v>
@@ -5426,10 +5407,10 @@
         <v>1691099</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2979722</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.762</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1034</v>
@@ -5448,10 +5429,10 @@
         <v>1655991</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.8157</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3006720</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.8157</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>956</v>
@@ -5470,10 +5451,10 @@
         <v>1600658</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.7868</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2860093</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.7868</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>975</v>
@@ -5492,10 +5473,10 @@
         <v>1553764</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.6947</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2633124</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.6947</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1192</v>
@@ -5514,10 +5495,10 @@
         <v>1503944</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.6773</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2522508</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.6773</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1120</v>
@@ -5536,10 +5517,10 @@
         <v>1462076</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.5585</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2278653</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.5585</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1164</v>
@@ -5558,10 +5539,10 @@
         <v>1432084</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.4302</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2048156</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.4302</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>712</v>
@@ -5580,10 +5561,10 @@
         <v>1386411</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.4015</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1943124</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.4015</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>757</v>
@@ -5602,10 +5583,10 @@
         <v>1344506</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.4058</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1890072</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.4058</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1343</v>
@@ -5624,10 +5605,10 @@
         <v>1310404</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.3754</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1802338</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.3754</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>984</v>
@@ -5646,10 +5627,10 @@
         <v>1276359</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.3265</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1693078</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.3265</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>174</v>
@@ -5668,10 +5649,10 @@
         <v>1249468</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.3042</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1629512</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.3042</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>280</v>
@@ -5690,10 +5671,10 @@
         <v>1211380</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.2431</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1505832</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.2431</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>133</v>
@@ -5712,10 +5693,10 @@
         <v>1152873</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.1979</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1380988</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.1979</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1132</v>
@@ -5734,10 +5715,10 @@
         <v>1097835</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.0587</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1162242</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.0587</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>129</v>
@@ -5756,10 +5737,10 @@
         <v>1400000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.0129</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1418000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.0129</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>148</v>
@@ -5778,10 +5759,10 @@
         <v>1370000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.9569</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1311000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.9569</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>545</v>
@@ -5800,10 +5781,10 @@
         <v>1365000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.8491000000000001</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1159000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.8491000000000001</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>917</v>
@@ -5822,10 +5803,10 @@
         <v>1360000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.7846000000000001</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1067000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.7846000000000001</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5844,10 +5825,10 @@
         <v>1352000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.7071000000000001</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>956000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.7071000000000001</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>100</v>
@@ -5866,10 +5847,10 @@
         <v>1411360</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.5477000000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>773000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.5477000000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>31</v>
@@ -5888,10 +5869,10 @@
         <v>1371520</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>617200</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.45</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5910,10 +5891,10 @@
         <v>1418240</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.4188</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>593900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.4188</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5932,10 +5913,10 @@
         <v>1417920</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.4062</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>576000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.4062</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5954,10 +5935,10 @@
         <v>1269280</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>507700</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.4</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5976,10 +5957,10 @@
         <v>1240480</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>465200</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.375</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5998,10 +5979,10 @@
         <v>1417120</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>534300</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.377</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6020,10 +6001,10 @@
         <v>1082720</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.4313</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>467000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.4313</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6042,10 +6023,10 @@
         <v>1094720</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.3936</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>430900</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.3936</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6064,10 +6045,10 @@
         <v>1094720</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>392500</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.3585</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6086,10 +6067,10 @@
         <v>992640</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>348700</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.3513</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6108,10 +6089,10 @@
         <v>992640</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.3849</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>382100</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.3849</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6130,10 +6111,10 @@
         <v>979840</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.3753</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>367700</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.3753</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6152,10 +6133,10 @@
         <v>934720</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.3604</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>336900</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.3604</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6174,10 +6155,10 @@
         <v>922560</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.3429</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>316300</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.3429</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6196,10 +6177,10 @@
         <v>811520</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>287200</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.3539</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6218,10 +6199,10 @@
         <v>742720</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.3794</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>281800</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.3794</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6240,10 +6221,10 @@
         <v>615200</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.4191</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>257800</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.4191</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6262,10 +6243,10 @@
         <v>615200</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.3565</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>219300</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.3565</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6283,10 +6264,10 @@
         <v>581600</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>218100</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.375</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6304,10 +6285,10 @@
         <v>588320</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>217400</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.3695</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6325,10 +6306,10 @@
         <v>579520</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.3634</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>210600</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.3634</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6346,10 +6327,10 @@
         <v>544000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.3645</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>198300</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.3645</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6367,10 +6348,10 @@
         <v>551840</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>195400</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.3541</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6388,10 +6369,10 @@
         <v>400160</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.4651</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>186100</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.4651</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6727,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6806,10 +6787,10 @@
         <v>3546236</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>0.7476</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2651237</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>0.7476</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>8950.32</v>
@@ -6828,10 +6809,10 @@
         <v>3557092</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>0.7637999999999999</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2717080.55</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>0.7637999999999999</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>19351.95</v>
@@ -6850,10 +6831,10 @@
         <v>3776486</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.8064</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3045314</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.8064</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>26024.19</v>
@@ -6872,10 +6853,10 @@
         <v>3726173</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.8151</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3037348</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.8151</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>26484.76</v>
@@ -6894,10 +6875,10 @@
         <v>3683482</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.9362999999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3448782</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.9362999999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>21944.64</v>
@@ -6916,10 +6897,10 @@
         <v>3671387</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.9887999999999999</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3630357</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.9887999999999999</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>24081.99</v>
@@ -6938,10 +6919,10 @@
         <v>3659090</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.0058</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3680428</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.0058</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>23614.19</v>
@@ -6960,10 +6941,10 @@
         <v>3637264</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.9092</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3307142</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.9092</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>24404.39</v>
@@ -6982,10 +6963,10 @@
         <v>3621102</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.8686</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3145398</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.8686</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>26644.24</v>
@@ -7004,10 +6985,10 @@
         <v>3606245</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.8744</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3153186</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.8744</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>21087.29</v>
@@ -7026,10 +7007,10 @@
         <v>3555800</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.8739</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3107544</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.8739</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17208</v>
@@ -7048,10 +7029,10 @@
         <v>3484100</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.8646</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>3012254</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.8646</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>17451</v>
@@ -7070,10 +7051,10 @@
         <v>3456100</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.8652000000000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2990200</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.8652000000000001</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>9971</v>
@@ -7092,10 +7073,10 @@
         <v>3445121</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.7938</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2734900</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.7938</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>14162</v>
@@ -7114,10 +7095,10 @@
         <v>3435270</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.7104</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2440347</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.7104</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10933</v>
@@ -7136,10 +7117,10 @@
         <v>3424217</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.8035</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2751286</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.8035</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>7982</v>
@@ -7158,10 +7139,10 @@
         <v>2775546</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.9927</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2755172</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.9927</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>8148</v>
@@ -7180,10 +7161,10 @@
         <v>2725858</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.9675</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2637231</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.9675</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5713</v>
@@ -7202,10 +7183,10 @@
         <v>3279391</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.6925</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2270891</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.6925</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4779</v>
@@ -7224,10 +7205,10 @@
         <v>2675060</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.7723</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2065820</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.7723</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6965</v>
@@ -7246,10 +7227,10 @@
         <v>2675060</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1792350</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.67</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>8565</v>
@@ -7268,10 +7249,10 @@
         <v>2634720</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.6187999999999999</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1630360</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.6187999999999999</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>7831</v>
@@ -7290,10 +7271,10 @@
         <v>2599470</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.6183999999999999</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1607460</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.6183999999999999</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6334</v>
@@ -7312,10 +7293,10 @@
         <v>2400000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.6256</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1501430</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.6256</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>17293.01</v>
@@ -7334,10 +7315,10 @@
         <v>2300000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.6975</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1604358</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.6975</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9753</v>
@@ -7356,10 +7337,10 @@
         <v>2268733</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.6895</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1564324</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.6895</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>9925</v>
@@ -7378,10 +7359,10 @@
         <v>2260471</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.6851</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1548609</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.6851</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>5072</v>
@@ -7400,10 +7381,10 @@
         <v>2245754</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.7009</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1574026</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.7009</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>3358</v>
@@ -7422,10 +7403,10 @@
         <v>2260687</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.6777000000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1532143</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.6777000000000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2447</v>
@@ -7444,10 +7425,10 @@
         <v>2056097</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.7122999999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1464499</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.7122999999999999</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>998</v>
@@ -7466,10 +7447,10 @@
         <v>2065470</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.7142999999999999</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1475438</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.7142999999999999</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>308</v>
@@ -7488,10 +7469,10 @@
         <v>1966000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.7112999999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1398448</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.7112999999999999</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>448</v>
@@ -7510,10 +7491,10 @@
         <v>1877537</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7074</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1328172</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7074</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>985</v>
@@ -7532,10 +7513,10 @@
         <v>1865606</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.6836</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1275295</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.6836</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>721</v>
@@ -7554,10 +7535,10 @@
         <v>1828897</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.6611</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1209037</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.6611</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>804</v>
@@ -7576,10 +7557,10 @@
         <v>1763694</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.6653</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1173298</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.6653</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>330</v>
@@ -7598,10 +7579,10 @@
         <v>1884033</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1130351</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.6</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1</v>
@@ -7620,10 +7601,10 @@
         <v>1747000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.6372000000000001</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1113133</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.6372000000000001</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1</v>
@@ -7642,10 +7623,10 @@
         <v>1692000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.6235000000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1054966</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.6235000000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3</v>
@@ -7664,10 +7645,10 @@
         <v>1706000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.6052999999999999</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1032598</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.6052999999999999</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1</v>
@@ -7686,10 +7667,10 @@
         <v>1618000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.6224</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1006980</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.6224</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>349</v>
@@ -7708,10 +7689,10 @@
         <v>1564618</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.5747000000000001</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>899214</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.5747000000000001</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1819</v>
@@ -7730,10 +7711,10 @@
         <v>1563997</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.6159</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>963238</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.6159</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1828</v>
@@ -7752,10 +7733,10 @@
         <v>1612193</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.6327</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1020000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.6327</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7774,10 +7755,10 @@
         <v>1613145</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.5976</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>963939</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.5976</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7796,10 +7777,10 @@
         <v>1549000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.5712999999999999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>884982</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.5712999999999999</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7818,10 +7799,10 @@
         <v>1557000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.5485</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>853978</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.5485</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7840,10 +7821,10 @@
         <v>1586000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.5401</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>856548</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.5401</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7862,10 +7843,10 @@
         <v>1561000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>789847</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.506</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7884,10 +7865,10 @@
         <v>1543000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.5292</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>816482</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.5292</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7906,10 +7887,10 @@
         <v>1549000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>844255</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.545</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7928,10 +7909,10 @@
         <v>1545000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.5179</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>800090</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.5179</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7950,10 +7931,10 @@
         <v>1532000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.5098</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>780946</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.5098</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7972,10 +7953,10 @@
         <v>1391000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.5767</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>802146</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.5767</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7994,10 +7975,10 @@
         <v>1512000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.5115</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>773433</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.5115</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -8016,10 +7997,10 @@
         <v>1432000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.5277000000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>755640</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.5277000000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8038,10 +8019,10 @@
         <v>1388000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>709251</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.511</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8059,10 +8040,10 @@
         <v>1409000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.5227999999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>736675</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.5227999999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8080,10 +8061,10 @@
         <v>1418000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.5099</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>723000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.5099</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8101,10 +8082,10 @@
         <v>1350000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.5161</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>696800</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.5161</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8122,10 +8103,10 @@
         <v>1362000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.5131</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>698900</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.5131</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8143,10 +8124,10 @@
         <v>1358000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.5083</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>690300</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.5083</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8164,10 +8145,10 @@
         <v>1353000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.5123</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>693200</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.5123</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8503,7 +8484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8582,10 +8563,10 @@
         <v>949704</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1548000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.63</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>18.55</v>
@@ -8604,10 +8585,10 @@
         <v>765956</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.6789</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1286000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.6789</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1.27</v>
@@ -8626,10 +8607,10 @@
         <v>646300</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.7026</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1100386</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.7026</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.11</v>
@@ -8648,10 +8629,10 @@
         <v>566197</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.6532</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>936061</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.6532</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>44.51</v>
@@ -8670,10 +8651,10 @@
         <v>476162</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.6382</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>780051</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.6382</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>9.41</v>
@@ -8692,10 +8673,10 @@
         <v>385314</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.6198</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>624136</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.6198</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.37</v>
@@ -8714,10 +8695,10 @@
         <v>358609</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.6174</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>580000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.6174</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>13.23</v>
@@ -8736,10 +8717,10 @@
         <v>280018</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.6178</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>453000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.6178</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>24.52</v>
@@ -8758,10 +8739,10 @@
         <v>215583</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.6235</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>350000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.6235</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>308.75</v>
@@ -8778,10 +8759,10 @@
         <v>192751</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.6401</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>316135.87</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.6401</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -8798,10 +8779,10 @@
         <v>175610</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.6489</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>289563</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.6489</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>10</v>
@@ -8820,10 +8801,10 @@
         <v>155286</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.6525</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>256613</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.6525</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>9</v>
@@ -8842,10 +8823,10 @@
         <v>144195</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.6555</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>238717</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.6555</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3</v>
@@ -8864,10 +8845,10 @@
         <v>167356</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.4045</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>235048</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.4045</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -8886,10 +8867,10 @@
         <v>143000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.4652</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>209524</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.4652</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1</v>
@@ -8908,10 +8889,10 @@
         <v>120000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.6917</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>203000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.6917</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -8930,10 +8911,10 @@
         <v>109529</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.7213</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>188532</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.7213</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -8952,10 +8933,10 @@
         <v>104607</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.7041</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>178257</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.7041</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -8974,10 +8955,10 @@
         <v>100097</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.6992</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>170089</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.6992</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -8996,10 +8977,10 @@
         <v>85862</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>136776</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.593</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -9018,10 +8999,10 @@
         <v>82366</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.5116</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>124502</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.5116</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -9040,10 +9021,10 @@
         <v>78553</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.7255</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>135540</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.7255</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -9062,10 +9043,10 @@
         <v>67925</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.8833</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>127923</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.8833</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -9084,10 +9065,10 @@
         <v>65900</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.8725</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>123398</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.8725</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>977.6</v>
@@ -9106,10 +9087,10 @@
         <v>67000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>118860</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.774</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>934.42</v>
@@ -9128,10 +9109,10 @@
         <v>61281</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.7193</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>105363</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.7193</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>460</v>
@@ -9150,10 +9131,10 @@
         <v>60000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.7998</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>107985</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.7998</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>540.03</v>
@@ -9172,10 +9153,10 @@
         <v>49524</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.8103</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>89655</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.8103</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>210</v>
@@ -9194,10 +9175,10 @@
         <v>45880</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.4004</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>64251</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.4004</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>20</v>
@@ -9216,10 +9197,10 @@
         <v>44690</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.6022</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>71601</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.6022</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9236,10 +9217,10 @@
         <v>41376</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.7324</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>71678</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.7324</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9256,10 +9237,10 @@
         <v>41376</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.7414</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>72053</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.7414</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9276,10 +9257,10 @@
         <v>42097</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>71482</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.698</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9296,10 +9277,10 @@
         <v>43837</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.6888</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>74034</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.6888</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9316,10 +9297,10 @@
         <v>40206</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.6654</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>66960</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.6654</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9336,10 +9317,10 @@
         <v>38864</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.5685</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>60957</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.5685</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9356,10 +9337,10 @@
         <v>37378</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.4601</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>54577</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.4601</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9376,10 +9357,10 @@
         <v>35312</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.3257</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>46814</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.3257</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9396,10 +9377,10 @@
         <v>31192</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.2436</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>38789</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.2436</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>14</v>
@@ -9416,10 +9397,10 @@
         <v>26499</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.2852</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>34056</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.2852</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9436,10 +9417,10 @@
         <v>22615</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.2779</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>28899</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.2779</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9456,10 +9437,10 @@
         <v>18996</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.407</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>26728</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.407</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9476,10 +9457,10 @@
         <v>16578</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.4154</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>23464</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.4154</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9496,10 +9477,10 @@
         <v>14697</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.4715</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>21626</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.4715</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9516,10 +9497,10 @@
         <v>13500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.4284</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>19284</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.4284</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9536,10 +9517,10 @@
         <v>12942</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.4452</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>18704</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.4452</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9556,10 +9537,10 @@
         <v>13000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.3365</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>17374</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.3365</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9576,10 +9557,10 @@
         <v>12692</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.2949</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16435</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.2949</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9596,10 +9577,10 @@
         <v>12665</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.2667</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>16043</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.2667</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9616,10 +9597,10 @@
         <v>12289</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.3088</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16084</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.3088</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9636,10 +9617,10 @@
         <v>12004</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.2461</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>14958</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.2461</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9656,10 +9637,10 @@
         <v>11306</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.2567</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>14208</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.2567</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9676,10 +9657,10 @@
         <v>10871</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.2412</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>13493</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.2412</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9696,10 +9677,10 @@
         <v>10406</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.0501</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>10927</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.0501</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9716,10 +9697,10 @@
         <v>9353</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.9255</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8656</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.9255</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9736,10 +9717,10 @@
         <v>8195</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.8382999999999999</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6870</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.8382999999999999</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9756,10 +9737,10 @@
         <v>7048</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5857</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.831</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9775,10 +9756,10 @@
         <v>5852</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.8473999999999999</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4959</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.8473999999999999</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9794,10 +9775,10 @@
         <v>5314</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.6684</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3552</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.6684</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9813,10 +9794,10 @@
         <v>3316</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2045</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.6167</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9832,10 +9813,10 @@
         <v>1435</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>551</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.384</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9851,10 +9832,10 @@
         <v>227</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.9031</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>205</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.9031</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9870,10 +9851,10 @@
         <v>173</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>82</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.474</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10207,7 +10188,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10286,10 +10267,10 @@
         <v>723192</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.7565</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1270299.48</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.7565</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>53350.06</v>
@@ -10308,10 +10289,10 @@
         <v>727515</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.8393</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1338141.63</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.8393</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>13740</v>
@@ -10330,10 +10311,10 @@
         <v>752373</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.6907</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1272005.3</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.6907</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>17443.01</v>
@@ -10352,10 +10333,10 @@
         <v>728764</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.6824</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1226096.16</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.6824</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>27228.19</v>
@@ -10374,10 +10355,10 @@
         <v>708733</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.6684</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1182479.92</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.6684</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>24242.57</v>
@@ -10396,10 +10377,10 @@
         <v>689486</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.6501</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1137724.91</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.6501</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>26979.07</v>
@@ -10418,10 +10399,10 @@
         <v>653213</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.6756</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1094518.75</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.6756</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>20521.2</v>
@@ -10440,10 +10421,10 @@
         <v>621370</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.6662</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1035333.08</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.6662</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>8676.469999999999</v>
@@ -10462,10 +10443,10 @@
         <v>604349</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.6758</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1012749.6</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.6758</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4307.79</v>
@@ -10484,10 +10465,10 @@
         <v>566537</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.6965</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>961104</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.6965</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>8041.85</v>
@@ -10506,10 +10487,10 @@
         <v>548095</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.7276</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>946865</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.7276</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>7070</v>
@@ -10528,10 +10509,10 @@
         <v>509885</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.7202</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>877111</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.7202</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3638</v>
@@ -10550,10 +10531,10 @@
         <v>459948</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.7168</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>789635.0600000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.7168</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -10568,10 +10549,10 @@
         <v>438563</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>751700</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.714</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -10586,10 +10567,10 @@
         <v>418973</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.6977</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>711300</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.6977</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -10604,10 +10585,10 @@
         <v>399100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.6537</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>660000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.6537</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -10622,10 +10603,10 @@
         <v>377800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.6035</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>605800</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.6035</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -10640,10 +10621,10 @@
         <v>356400</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.5584</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>555400</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.5584</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -10658,10 +10639,10 @@
         <v>334200</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.4411</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>481600</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.4411</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -10676,10 +10657,10 @@
         <v>300800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>419000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.393</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -10694,10 +10675,10 @@
         <v>266700</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>363500</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.363</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -10712,10 +10693,10 @@
         <v>243300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.2256</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>298200</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.2256</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -10730,10 +10711,10 @@
         <v>240600</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.2993</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>312600</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.2993</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -10748,10 +10729,10 @@
         <v>231500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.2562</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>290800</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.2562</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -10766,10 +10747,10 @@
         <v>212400</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.1709</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>248700</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.1709</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -10784,10 +10765,10 @@
         <v>193400</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.0005</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>193500</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.0005</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -10802,10 +10783,10 @@
         <v>173100</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.0774</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>186500</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.0774</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -10820,10 +10801,10 @@
         <v>161900</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.8802000000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>142500</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.8802000000000001</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -10838,10 +10819,10 @@
         <v>146900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.8489</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>124700</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.8489</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -10856,10 +10837,10 @@
         <v>137600</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.9358</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>128771</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.9358</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10874,10 +10855,10 @@
         <v>123800</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.7826000000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>96880</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.7826000000000001</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10892,10 +10873,10 @@
         <v>87300</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.7675</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>67000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.7675</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10910,10 +10891,10 @@
         <v>89900</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7182000000000001</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>64563</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7182000000000001</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -10928,10 +10909,10 @@
         <v>81100</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.7143999999999999</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>57939</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.7143999999999999</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -10946,10 +10927,10 @@
         <v>69400</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.7291</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>50600</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.7291</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -10964,10 +10945,10 @@
         <v>64900</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.7657999999999999</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>49700</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.7657999999999999</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -10982,10 +10963,10 @@
         <v>65900</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.7845</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>51700</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.7845</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -11000,10 +10981,10 @@
         <v>65900</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.7587</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>50000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.7587</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -11018,10 +10999,10 @@
         <v>63700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.7514</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>47867</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.7514</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -11036,10 +11017,10 @@
         <v>62600</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.7544</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>47225</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.7544</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -11054,10 +11035,10 @@
         <v>62900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.7506</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>47215</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.7506</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -11072,10 +11053,10 @@
         <v>60800</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.7569</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>46018</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.7569</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -11090,10 +11071,10 @@
         <v>60800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.7167</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>43578</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.7167</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -11108,10 +11089,10 @@
         <v>58500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.7009</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>41000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.7009</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -11126,10 +11107,10 @@
         <v>83100</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.5115</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>42505</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.5115</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -11144,10 +11125,10 @@
         <v>84200</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.4916</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>41389</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.4916</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -11162,10 +11143,10 @@
         <v>78100</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>43348</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.555</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -11180,10 +11161,10 @@
         <v>76600</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.5251</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>40226</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.5251</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -11198,10 +11179,10 @@
         <v>81200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>24200</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.298</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -11216,10 +11197,10 @@
         <v>90000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.2442</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>21979</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.2442</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -11234,10 +11215,10 @@
         <v>95000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.2168</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>20600</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.2168</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -11252,10 +11233,10 @@
         <v>98000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.2346</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>22994</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.2346</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -11270,10 +11251,10 @@
         <v>102500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>37500</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.3659</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -11288,10 +11269,10 @@
         <v>106000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.3113</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>33000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.3113</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -11306,10 +11287,10 @@
         <v>108000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.2949</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>31850</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.2949</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -11324,10 +11305,10 @@
         <v>110000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.3118</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>34295</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.3118</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -11342,10 +11323,10 @@
         <v>116000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.4078</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>47310</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.4078</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -11359,10 +11340,10 @@
         <v>126100</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.3925</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>49500</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.3925</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -11376,10 +11357,10 @@
         <v>130200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.4977</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>64800</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.4977</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -11393,10 +11374,10 @@
         <v>128000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.6187999999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>79200</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.6187999999999999</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -11410,10 +11391,10 @@
         <v>126000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.6443</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>81180</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.6443</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -11427,10 +11408,10 @@
         <v>124000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.6683</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>82870</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.6683</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -11444,10 +11425,10 @@
         <v>122900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.6355</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>78100</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.6355</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -11779,7 +11760,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11858,10 +11839,10 @@
         <v>731985</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.1814</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>864770.46</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.1814</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>457890.55</v>
@@ -11880,10 +11861,10 @@
         <v>719714</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.1972</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>861675</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.1972</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>658115.4300000001</v>
@@ -11902,10 +11883,10 @@
         <v>746000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.1684</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>871600</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.1684</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>549390.34</v>
@@ -11924,10 +11905,10 @@
         <v>745000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.1092</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>826348</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.1092</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>570253.01</v>
@@ -11946,10 +11927,10 @@
         <v>707102</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.1878</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>839909</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.1878</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>554422.05</v>
@@ -11968,10 +11949,10 @@
         <v>693838</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.1877</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>824093</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.1877</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>590661.73</v>
@@ -11990,10 +11971,10 @@
         <v>703097</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.1625</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>817366</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.1625</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>494110.03</v>
@@ -12012,10 +11993,10 @@
         <v>701244</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.1636</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>815938</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.1636</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>424083.96</v>
@@ -12034,10 +12015,10 @@
         <v>715200</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.1411</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>816103</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.1411</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>376917.92</v>
@@ -12056,10 +12037,10 @@
         <v>678148</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.2389</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>840171</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.2389</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>365959.35</v>
@@ -12078,10 +12059,10 @@
         <v>685900</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.2608</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>864806</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.2608</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>335620</v>
@@ -12100,10 +12081,10 @@
         <v>650850</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.2326</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>802255</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.2326</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>317783</v>
@@ -12122,10 +12103,10 @@
         <v>597770</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.2561</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>750852</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.2561</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>270477</v>
@@ -12144,10 +12125,10 @@
         <v>576960</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.1973</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>690812</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.1973</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>251235</v>
@@ -12166,10 +12147,10 @@
         <v>536500</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.1535</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>618866</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.1535</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>300079</v>
@@ -12188,10 +12169,10 @@
         <v>517150</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.0594</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>547861</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.0594</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>246201</v>
@@ -12210,10 +12191,10 @@
         <v>476000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.2361</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>588380</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.2361</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>240238</v>
@@ -12232,10 +12213,10 @@
         <v>477000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.1278</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>537982</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.1278</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>257138</v>
@@ -12254,10 +12235,10 @@
         <v>464800</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>513618</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.105</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>181566</v>
@@ -12276,10 +12257,10 @@
         <v>454300</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.2651</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>574739</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.2651</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>189551</v>
@@ -12298,10 +12279,10 @@
         <v>435500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.2975</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>565045</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.2975</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>129639</v>
@@ -12320,10 +12301,10 @@
         <v>428800</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>527413</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.23</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>99040</v>
@@ -12342,10 +12323,10 @@
         <v>416670</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.1458</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>477437</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.1458</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>99847</v>
@@ -12364,10 +12345,10 @@
         <v>421380</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.1428</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>481571</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.1428</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>45915.66</v>
@@ -12386,10 +12367,10 @@
         <v>417970</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.1723</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>489991</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.1723</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>35342</v>
@@ -12408,10 +12389,10 @@
         <v>407500</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.1346</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>462344</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.1346</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>39657</v>
@@ -12430,10 +12411,10 @@
         <v>407300</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.1097</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>451970</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.1097</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>43575</v>
@@ -12452,10 +12433,10 @@
         <v>395000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.0189</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>402450</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.0189</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>45363</v>
@@ -12474,10 +12455,10 @@
         <v>395460</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.0722</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>424025</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.0722</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>28254</v>
@@ -12496,10 +12477,10 @@
         <v>417000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.8969</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>374002</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.8969</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>32245</v>
@@ -12518,10 +12499,10 @@
         <v>425000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.7672</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>326062</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.7672</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>22790</v>
@@ -12540,10 +12521,10 @@
         <v>405990</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>309348</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.762</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>23198</v>
@@ -12562,10 +12543,10 @@
         <v>420000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7056</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>296353</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7056</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>10295</v>
@@ -12584,10 +12565,10 @@
         <v>390000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.6776</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>264248</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.6776</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>4143</v>
@@ -12606,10 +12587,10 @@
         <v>365000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>242766</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.6651</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>28842</v>
@@ -12628,10 +12609,10 @@
         <v>365000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.6575</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>240000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.6575</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>58518</v>
@@ -12650,10 +12631,10 @@
         <v>365000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.6521</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>238000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.6521</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>10491</v>
@@ -12672,10 +12653,10 @@
         <v>320000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.6553</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>209709</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.6553</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>11060</v>
@@ -12694,10 +12675,10 @@
         <v>300000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.6263</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>187900</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.6263</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12713,10 +12694,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="n">
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="n">
         <v>188779</v>
       </c>
-      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
@@ -12731,10 +12712,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="n">
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="n">
         <v>172400</v>
       </c>
-      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="n">
         <v>0</v>
       </c>
@@ -12749,10 +12730,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="n">
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="n">
         <v>152600</v>
       </c>
-      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
@@ -12767,10 +12748,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="n">
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="n">
         <v>127700</v>
       </c>
-      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
@@ -12785,10 +12766,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="n">
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="n">
         <v>113000</v>
       </c>
-      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
@@ -12803,10 +12784,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="n">
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
         <v>108300</v>
       </c>
-      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
@@ -12821,10 +12802,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="n">
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
         <v>101600</v>
       </c>
-      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
@@ -12839,10 +12820,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="n">
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
         <v>91700</v>
       </c>
-      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -12857,10 +12838,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="n">
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
         <v>78800</v>
       </c>
-      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -12875,10 +12856,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="n">
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
         <v>68600</v>
       </c>
-      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -12893,10 +12874,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="n">
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
         <v>46800</v>
       </c>
-      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -12911,10 +12892,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="n">
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
         <v>54300</v>
       </c>
-      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -12929,10 +12910,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="n">
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
         <v>49900</v>
       </c>
-      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -12947,10 +12928,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="n">
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
         <v>52400</v>
       </c>
-      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -12965,10 +12946,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="n">
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
         <v>46200</v>
       </c>
-      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -12983,10 +12964,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="n">
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
         <v>32400</v>
       </c>
-      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -13001,10 +12982,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="n">
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
         <v>21500</v>
       </c>
-      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -13019,10 +13000,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="n">
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
         <v>25100</v>
       </c>
-      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -13036,10 +13017,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="n">
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
         <v>23000</v>
       </c>
-      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -13053,10 +13034,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="n">
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
         <v>16600</v>
       </c>
-      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -13070,10 +13051,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="n">
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
         <v>1100</v>
       </c>
-      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -13087,10 +13068,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="n">
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
         <v>6700</v>
       </c>
-      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -13104,10 +13085,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="n">
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
         <v>5100</v>
       </c>
-      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -13121,10 +13102,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="n">
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
         <v>3900</v>
       </c>
-      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>

--- a/Resultados/Mercado mundial - Caucho natural en forma primaria.xlsx
+++ b/Resultados/Mercado mundial - Caucho natural en forma primaria.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tailandia" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Côte d'Ivoire" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Viet Nam" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Thailand" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Indonesia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Côte d'Ivoire" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Viet Nam" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="China, mainland" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,10 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +408,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +434,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +490,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +516,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +572,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +598,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$23</f>
+              <f>'Países exportadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$23</f>
+              <f>'Países exportadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +654,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +680,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +736,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +762,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Tailandia'!$B$12:$B$74</f>
+              <f>'Thailand'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Tailandia'!$C$12:$C$74</f>
+              <f>'Thailand'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +818,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +844,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +900,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +926,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +982,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1008,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1064,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1090,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1164,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1204,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1234,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1274,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1286,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1304,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1344,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1356,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1374,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1414,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1426,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1441,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1463,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1478,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1493,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1515,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1530,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1545,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1567,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1582,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1597,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1619,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1634,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1649,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2012,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2061,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2140,10 @@
         <v>13576507</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>14757135.79</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.087</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>14757135.79</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1107223.9</v>
@@ -2160,10 +2162,10 @@
         <v>13195514</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>14605515.94</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.1069</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>14605515.94</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1489552.08</v>
@@ -2182,10 +2184,10 @@
         <v>13205252</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>14686160.8</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.1121</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>14686160.8</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1439999.2</v>
@@ -2204,10 +2206,10 @@
         <v>12965759</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>14244772.23</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.0986</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>14244772.23</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1405738.63</v>
@@ -2226,10 +2228,10 @@
         <v>12430089</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>14448473.6</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.1624</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>14448473.6</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1292158.25</v>
@@ -2248,10 +2250,10 @@
         <v>12048371</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>14158993.66</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.1752</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>14158993.66</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1381788.28</v>
@@ -2270,10 +2272,10 @@
         <v>11663369</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>13812910.21</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.1843</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>13812910.21</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1267024.05</v>
@@ -2292,10 +2294,10 @@
         <v>11467822</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>13519064.06</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.1789</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>13519064.06</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>1172682.85</v>
@@ -2314,10 +2316,10 @@
         <v>11304994</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>13265318.29</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.1734</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>13265318.29</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1196130.7</v>
@@ -2336,10 +2338,10 @@
         <v>11116410</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>13288231.27</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.1954</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>13288231.27</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1268199.24</v>
@@ -2358,10 +2360,10 @@
         <v>10664597</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>13033299.92</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.2221</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>13033299.92</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1094300</v>
@@ -2380,10 +2382,10 @@
         <v>10171422</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>12623672.43</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.2411</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>12623672.43</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1032232</v>
@@ -2402,10 +2404,10 @@
         <v>9481170</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>11548782.6</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.2181</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>11548782.6</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>975316</v>
@@ -2424,10 +2426,10 @@
         <v>9322839</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10774029</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.1557</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>10774029</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1027962</v>
@@ -2446,10 +2448,10 @@
         <v>9154077</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10218467.54</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.1163</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>10218467.54</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1104422</v>
@@ -2468,10 +2470,10 @@
         <v>9307274</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>10714865.46</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.1512</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>10714865.46</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1145114</v>
@@ -2490,10 +2492,10 @@
         <v>8567278</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>10590458.65</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.2362</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>10590458.65</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>1204516</v>
@@ -2512,10 +2514,10 @@
         <v>8360972</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>10363033.07</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.2395</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>10363033.07</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1124613</v>
@@ -2534,10 +2536,10 @@
         <v>8816352</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>9523351.859999999</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.0802</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>9523351.859999999</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1002049</v>
@@ -2556,10 +2558,10 @@
         <v>8044280</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>9260420.109999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.1512</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>9260420.109999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1056450</v>
@@ -2578,10 +2580,10 @@
         <v>7899821</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>8410302.699999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.0646</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>8410302.699999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>917586</v>
@@ -2600,10 +2602,10 @@
         <v>7766542</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>7718453.48</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.9937999999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>7718453.48</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>934587</v>
@@ -2622,10 +2624,10 @@
         <v>7702246</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7483207.9</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.9716</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>7483207.9</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>992967</v>
@@ -2644,10 +2646,10 @@
         <v>7462279</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>7094492.53</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.9507000000000001</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>7094492.53</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1042905.51</v>
@@ -2666,10 +2668,10 @@
         <v>7296365</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6732480.77</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.9227000000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6732480.77</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>733130.39</v>
@@ -2688,10 +2690,10 @@
         <v>7253853</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6568417.31</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.9055</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6568417.31</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>644898</v>
@@ -2710,10 +2712,10 @@
         <v>7215984</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>6512853.86</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.9026000000000001</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>6512853.86</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>495834.7</v>
@@ -2732,10 +2734,10 @@
         <v>7095420</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6345759.76</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.8943</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6345759.76</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>524453.9300000001</v>
@@ -2754,10 +2756,10 @@
         <v>7068143</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6077753.02</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.8599</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>6077753.02</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>457059.23</v>
@@ -2776,10 +2778,10 @@
         <v>6860762</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5820598.13</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.8483999999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5820598.13</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>390487.21</v>
@@ -2798,10 +2800,10 @@
         <v>6824095</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>5605260.08</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.8214</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>5605260.08</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>384514</v>
@@ -2820,10 +2822,10 @@
         <v>6629406</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5417798.41</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.8172</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>5417798.41</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>356581</v>
@@ -2842,10 +2844,10 @@
         <v>6505774</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5181723.67</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7965</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5181723.67</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>346425</v>
@@ -2864,10 +2866,10 @@
         <v>6524444</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>5225364</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.8008999999999999</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>5225364</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>316179</v>
@@ -2886,10 +2888,10 @@
         <v>6455238</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5143902</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.7968999999999999</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5143902</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>426494</v>
@@ -2908,10 +2910,10 @@
         <v>6284894</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5119374</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.8146</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5119374</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>405911</v>
@@ -2930,10 +2932,10 @@
         <v>6202752</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4824452</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.7777999999999999</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4824452</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>299451</v>
@@ -2952,10 +2954,10 @@
         <v>5994647</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4616828</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.7702</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4616828</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>273464</v>
@@ -2974,10 +2976,10 @@
         <v>5932797</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4247001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.7159</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4247001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>243373</v>
@@ -2996,10 +2998,10 @@
         <v>5577805</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4100807</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.7352000000000001</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4100807</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>242146</v>
@@ -3018,10 +3020,10 @@
         <v>5536149</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>4035568</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.7289</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>4035568</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>239945</v>
@@ -3040,10 +3042,10 @@
         <v>5520018</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3763673</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.6818</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3763673</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>219508</v>
@@ -3062,10 +3064,10 @@
         <v>5388271</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3754740</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.6968</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3754740</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>226720</v>
@@ -3084,10 +3086,10 @@
         <v>5382587</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3748108</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.6962999999999999</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3748108</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>214729</v>
@@ -3106,10 +3108,10 @@
         <v>5623976</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.6757000000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3800000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>236617</v>
@@ -3128,10 +3130,10 @@
         <v>5433481</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>3674133</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.6762</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>3674133</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>223202</v>
@@ -3150,10 +3152,10 @@
         <v>5364701</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3606015</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.6722</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3606015</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>235474</v>
@@ -3172,10 +3174,10 @@
         <v>5393247</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3576326</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.6631</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3576326</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>232163</v>
@@ -3194,10 +3196,10 @@
         <v>5187221</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3269255</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.6303</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3269255</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>207226</v>
@@ -3216,10 +3218,10 @@
         <v>5289063</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3361652</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.6356000000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3361652</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>232035</v>
@@ -3238,10 +3240,10 @@
         <v>5305485</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>3404407</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.6417</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>3404407</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>247425</v>
@@ -3260,10 +3262,10 @@
         <v>4995756</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>3058785</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.6123</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>3058785</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>263497</v>
@@ -3282,10 +3284,10 @@
         <v>4921659</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>3036401</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.6169</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>3036401</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>248735</v>
@@ -3304,10 +3306,10 @@
         <v>4621270</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2986300</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.6462</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2986300</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>241380</v>
@@ -3326,10 +3328,10 @@
         <v>4654764</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2919332</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.6272000000000001</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2919332</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>241243</v>
@@ -3348,10 +3350,10 @@
         <v>4336252</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2671760</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.6161</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2671760</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>229142</v>
@@ -3370,10 +3372,10 @@
         <v>4280446</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2473498</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.5779</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2473498</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>204483</v>
@@ -3391,10 +3393,10 @@
         <v>4297109</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2471089</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.5751000000000001</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2471089</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>190954</v>
@@ -3412,10 +3414,10 @@
         <v>4396958</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2383817</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.5422</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2383817</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>184163</v>
@@ -3433,10 +3435,10 @@
         <v>4205949</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2292485</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.5451</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2292485</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>184123</v>
@@ -3454,10 +3456,10 @@
         <v>4175782</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2223002</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.5324</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2223002</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>166876</v>
@@ -3475,10 +3477,10 @@
         <v>4065498</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2159128</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.5311</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2159128</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>170894</v>
@@ -3496,10 +3498,10 @@
         <v>3879860</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2120070</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.5464</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2120070</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>153237</v>
@@ -3786,8 +3788,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3884,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3938,7 +3940,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3966,7 +3968,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Camboya</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3982,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Filipinas</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3996,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4010,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>República Democrática Popular Lao</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4022,35 +4024,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1386210.089999998</v>
+        <v>90713.36</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.09393490103542634</v>
+        <v>0.006147084453981297</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>1295496.729999999</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.08778781658144508</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>14757135.79</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4071,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4127,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4226,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4271,7 +4282,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4296,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4310,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4327,7 +4338,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Camerún</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4355,36 +4366,44 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>21266.80000000005</v>
+        <v>745.14</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.01207484130493274</v>
+        <v>0.0004230748043879456</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1761248.82</v>
+        <v>20521.66000000015</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>1</v>
+        <v>0.01165176650054485</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>1761248.82</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4396,126 +4415,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
-      <c r="E26" s="25" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="29" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="29" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="37" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="37" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="37" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="37" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="37" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="37" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="37" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="37" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="37" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="37" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="38" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="38" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="38" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="38" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="38" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="38" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="38" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="38" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="38" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4556,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4652,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4666,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4680,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4689,7 +4708,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4722,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4731,7 +4750,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4764,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4778,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4812,58 +4831,58 @@
     </row>
     <row r="26">
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
+      <c r="C26" s="39" t="n"/>
       <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="39" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="39" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="39" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="39" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="39" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="39" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="39" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="39" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="39" t="n"/>
+      <c r="D35" s="38" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="39" t="n"/>
+      <c r="D36" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4951,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5030,10 @@
         <v>3533107</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>4707264</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.3323</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>4707264</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1670.1</v>
@@ -5033,10 +5052,10 @@
         <v>3524655</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>4785779.31</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.3578</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>4785779.31</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1103.25</v>
@@ -5055,10 +5074,10 @@
         <v>3516091</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>4892451.18</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.3914</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>4892451.18</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2052.59</v>
@@ -5077,10 +5096,10 @@
         <v>3517511</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>4859666.1</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.3816</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>4859666.1</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1913.63</v>
@@ -5099,10 +5118,10 @@
         <v>3272927</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>4839952</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.4788</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>4839952</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>981.97</v>
@@ -5121,10 +5140,10 @@
         <v>3203696</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4813527</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.5025</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>4813527</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1323.24</v>
@@ -5143,10 +5162,10 @@
         <v>3057079</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4503101</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.473</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>4503101</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2258.07</v>
@@ -5165,10 +5184,10 @@
         <v>3047586</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>4519000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.4828</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>4519000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2712.49</v>
@@ -5187,10 +5206,10 @@
         <v>3015361</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>4466063</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.4811</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>4466063</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3565.48</v>
@@ -5209,10 +5228,10 @@
         <v>2915813</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>4566260</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.566</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>4566260</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3245.84</v>
@@ -5231,10 +5250,10 @@
         <v>2634034</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>4305069</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.6344</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>4305069</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2079</v>
@@ -5253,10 +5272,10 @@
         <v>2519760</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4139403</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.6428</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4139403</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3024</v>
@@ -5275,10 +5294,10 @@
         <v>2042502</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3348897</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.6396</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3348897</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2795</v>
@@ -5297,10 +5316,10 @@
         <v>1929257</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3051781</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.5818</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3051781</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>3004</v>
@@ -5319,10 +5338,10 @@
         <v>1856072</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3090280</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.665</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3090280</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2541</v>
@@ -5341,10 +5360,10 @@
         <v>1819502</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>3166910</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.7405</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>3166910</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2448</v>
@@ -5363,10 +5382,10 @@
         <v>1766849</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3024207</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.7116</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3024207</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>555</v>
@@ -5385,10 +5404,10 @@
         <v>1742896</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3070520</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.7617</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3070520</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>975</v>
@@ -5407,10 +5426,10 @@
         <v>1691099</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2979722</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.762</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2979722</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1034</v>
@@ -5429,10 +5448,10 @@
         <v>1655991</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3006720</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.8157</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>3006720</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>956</v>
@@ -5451,10 +5470,10 @@
         <v>1600658</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2860093</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.7868</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2860093</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>975</v>
@@ -5473,10 +5492,10 @@
         <v>1553764</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2633124</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.6947</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2633124</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1192</v>
@@ -5495,10 +5514,10 @@
         <v>1503944</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2522508</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.6773</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2522508</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1120</v>
@@ -5517,10 +5536,10 @@
         <v>1462076</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2278653</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.5585</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2278653</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1164</v>
@@ -5539,10 +5558,10 @@
         <v>1432084</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2048156</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.4302</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2048156</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>712</v>
@@ -5561,10 +5580,10 @@
         <v>1386411</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1943124</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.4015</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1943124</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>757</v>
@@ -5583,10 +5602,10 @@
         <v>1344506</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1890072</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.4058</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1890072</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1343</v>
@@ -5605,10 +5624,10 @@
         <v>1310404</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1802338</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.3754</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1802338</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>984</v>
@@ -5627,10 +5646,10 @@
         <v>1276359</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1693078</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.3265</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1693078</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>174</v>
@@ -5649,10 +5668,10 @@
         <v>1249468</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1629512</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.3042</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1629512</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>280</v>
@@ -5671,10 +5690,10 @@
         <v>1211380</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1505832</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.2431</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1505832</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>133</v>
@@ -5693,10 +5712,10 @@
         <v>1152873</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1380988</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.1979</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1380988</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1132</v>
@@ -5715,10 +5734,10 @@
         <v>1097835</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1162242</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.0587</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1162242</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>129</v>
@@ -5737,10 +5756,10 @@
         <v>1400000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1418000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.0129</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1418000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>148</v>
@@ -5759,10 +5778,10 @@
         <v>1370000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1311000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.9569</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1311000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>545</v>
@@ -5781,10 +5800,10 @@
         <v>1365000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1159000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.8491000000000001</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1159000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>917</v>
@@ -5803,10 +5822,10 @@
         <v>1360000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1067000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.7846000000000001</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1067000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5825,10 +5844,10 @@
         <v>1352000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>956000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.7071000000000001</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>956000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>100</v>
@@ -5847,10 +5866,10 @@
         <v>1411360</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>773000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.5477000000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>773000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>31</v>
@@ -5869,10 +5888,10 @@
         <v>1371520</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>617200</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.45</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>617200</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5891,10 +5910,10 @@
         <v>1418240</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>593900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.4188</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>593900</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5913,10 +5932,10 @@
         <v>1417920</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>576000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.4062</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>576000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5935,10 +5954,10 @@
         <v>1269280</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>507700</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.4</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>507700</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5957,10 +5976,10 @@
         <v>1240480</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>465200</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.375</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>465200</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5979,10 +5998,10 @@
         <v>1417120</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>534300</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.377</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>534300</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6001,10 +6020,10 @@
         <v>1082720</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>467000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.4313</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>467000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6023,10 +6042,10 @@
         <v>1094720</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>430900</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.3936</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>430900</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6045,10 +6064,10 @@
         <v>1094720</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>392500</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.3585</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>392500</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6067,10 +6086,10 @@
         <v>992640</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>348700</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.3513</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>348700</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6089,10 +6108,10 @@
         <v>992640</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>382100</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.3849</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>382100</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6111,10 +6130,10 @@
         <v>979840</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>367700</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.3753</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>367700</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6133,10 +6152,10 @@
         <v>934720</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>336900</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.3604</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>336900</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6155,10 +6174,10 @@
         <v>922560</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>316300</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.3429</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>316300</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6177,10 +6196,10 @@
         <v>811520</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>287200</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.3539</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>287200</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6199,10 +6218,10 @@
         <v>742720</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>281800</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.3794</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>281800</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6221,10 +6240,10 @@
         <v>615200</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>257800</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.4191</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>257800</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6243,10 +6262,10 @@
         <v>615200</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>219300</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.3565</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>219300</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6264,10 +6283,10 @@
         <v>581600</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>218100</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.375</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>218100</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6304,10 @@
         <v>588320</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>217400</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.3695</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>217400</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6306,10 +6325,10 @@
         <v>579520</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>210600</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.3634</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>210600</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6346,10 @@
         <v>544000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>198300</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.3645</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>198300</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6367,10 @@
         <v>551840</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>195400</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.3541</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>195400</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6388,10 @@
         <v>400160</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>186100</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.4651</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>186100</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6727,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6806,10 @@
         <v>3546236</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2651237</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>0.7476</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2651237</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>8950.32</v>
@@ -6809,10 +6828,10 @@
         <v>3557092</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2717080.55</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>0.7637999999999999</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2717080.55</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>19351.95</v>
@@ -6831,10 +6850,10 @@
         <v>3776486</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3045314</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.8064</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3045314</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>26024.19</v>
@@ -6853,10 +6872,10 @@
         <v>3726173</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3037348</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.8151</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3037348</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>26484.76</v>
@@ -6875,10 +6894,10 @@
         <v>3683482</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3448782</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.9362999999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3448782</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>21944.64</v>
@@ -6897,10 +6916,10 @@
         <v>3671387</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3630357</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.9887999999999999</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3630357</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>24081.99</v>
@@ -6919,10 +6938,10 @@
         <v>3659090</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3680428</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.0058</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3680428</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>23614.19</v>
@@ -6941,10 +6960,10 @@
         <v>3637264</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3307142</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.9092</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3307142</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>24404.39</v>
@@ -6963,10 +6982,10 @@
         <v>3621102</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3145398</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.8686</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3145398</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>26644.24</v>
@@ -6985,10 +7004,10 @@
         <v>3606245</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3153186</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.8744</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3153186</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>21087.29</v>
@@ -7007,10 +7026,10 @@
         <v>3555800</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3107544</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.8739</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3107544</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>17208</v>
@@ -7029,10 +7048,10 @@
         <v>3484100</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>3012254</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.8646</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>3012254</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>17451</v>
@@ -7051,10 +7070,10 @@
         <v>3456100</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2990200</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.8652000000000001</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2990200</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>9971</v>
@@ -7073,10 +7092,10 @@
         <v>3445121</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2734900</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.7938</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2734900</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>14162</v>
@@ -7095,10 +7114,10 @@
         <v>3435270</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2440347</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.7104</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2440347</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10933</v>
@@ -7117,10 +7136,10 @@
         <v>3424217</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2751286</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.8035</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2751286</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>7982</v>
@@ -7139,10 +7158,10 @@
         <v>2775546</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2755172</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.9927</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2755172</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>8148</v>
@@ -7161,10 +7180,10 @@
         <v>2725858</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2637231</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.9675</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2637231</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>5713</v>
@@ -7183,10 +7202,10 @@
         <v>3279391</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2270891</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.6925</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2270891</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>4779</v>
@@ -7205,10 +7224,10 @@
         <v>2675060</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2065820</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.7723</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2065820</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6965</v>
@@ -7227,10 +7246,10 @@
         <v>2675060</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1792350</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.67</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1792350</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>8565</v>
@@ -7249,10 +7268,10 @@
         <v>2634720</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1630360</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.6187999999999999</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1630360</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>7831</v>
@@ -7271,10 +7290,10 @@
         <v>2599470</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1607460</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.6183999999999999</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1607460</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>6334</v>
@@ -7293,10 +7312,10 @@
         <v>2400000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1501430</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.6256</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1501430</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>17293.01</v>
@@ -7315,10 +7334,10 @@
         <v>2300000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1604358</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.6975</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1604358</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>9753</v>
@@ -7337,10 +7356,10 @@
         <v>2268733</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1564324</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.6895</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1564324</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>9925</v>
@@ -7359,10 +7378,10 @@
         <v>2260471</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1548609</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.6851</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1548609</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>5072</v>
@@ -7381,10 +7400,10 @@
         <v>2245754</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1574026</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.7009</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1574026</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>3358</v>
@@ -7403,10 +7422,10 @@
         <v>2260687</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1532143</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.6777000000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1532143</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2447</v>
@@ -7425,10 +7444,10 @@
         <v>2056097</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1464499</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.7122999999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1464499</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>998</v>
@@ -7447,10 +7466,10 @@
         <v>2065470</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1475438</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.7142999999999999</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1475438</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>308</v>
@@ -7469,10 +7488,10 @@
         <v>1966000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1398448</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.7112999999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1398448</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>448</v>
@@ -7491,10 +7510,10 @@
         <v>1877537</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1328172</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7074</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1328172</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>985</v>
@@ -7513,10 +7532,10 @@
         <v>1865606</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1275295</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.6836</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1275295</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>721</v>
@@ -7535,10 +7554,10 @@
         <v>1828897</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1209037</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.6611</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1209037</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>804</v>
@@ -7557,10 +7576,10 @@
         <v>1763694</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1173298</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.6653</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1173298</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>330</v>
@@ -7579,10 +7598,10 @@
         <v>1884033</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1130351</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.6</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1130351</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1</v>
@@ -7601,10 +7620,10 @@
         <v>1747000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1113133</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.6372000000000001</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1113133</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1</v>
@@ -7623,10 +7642,10 @@
         <v>1692000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1054966</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.6235000000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1054966</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>3</v>
@@ -7645,10 +7664,10 @@
         <v>1706000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1032598</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.6052999999999999</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1032598</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1</v>
@@ -7667,10 +7686,10 @@
         <v>1618000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1006980</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.6224</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1006980</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>349</v>
@@ -7689,10 +7708,10 @@
         <v>1564618</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>899214</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.5747000000000001</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>899214</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1819</v>
@@ -7711,10 +7730,10 @@
         <v>1563997</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>963238</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.6159</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>963238</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1828</v>
@@ -7733,10 +7752,10 @@
         <v>1612193</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.6327</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1020000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7755,10 +7774,10 @@
         <v>1613145</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>963939</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.5976</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>963939</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7777,10 +7796,10 @@
         <v>1549000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>884982</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.5712999999999999</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>884982</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7799,10 +7818,10 @@
         <v>1557000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>853978</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.5485</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>853978</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7821,10 +7840,10 @@
         <v>1586000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>856548</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.5401</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>856548</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7843,10 +7862,10 @@
         <v>1561000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>789847</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.506</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>789847</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7865,10 +7884,10 @@
         <v>1543000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>816482</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.5292</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>816482</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7887,10 +7906,10 @@
         <v>1549000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>844255</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.545</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>844255</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7909,10 +7928,10 @@
         <v>1545000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>800090</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.5179</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>800090</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7931,10 +7950,10 @@
         <v>1532000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>780946</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.5098</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>780946</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7953,10 +7972,10 @@
         <v>1391000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>802146</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.5767</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>802146</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7975,10 +7994,10 @@
         <v>1512000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>773433</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.5115</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>773433</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7997,10 +8016,10 @@
         <v>1432000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>755640</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.5277000000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>755640</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8019,10 +8038,10 @@
         <v>1388000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>709251</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.511</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>709251</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8040,10 +8059,10 @@
         <v>1409000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>736675</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.5227999999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>736675</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8061,10 +8080,10 @@
         <v>1418000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>723000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.5099</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>723000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8082,10 +8101,10 @@
         <v>1350000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>696800</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.5161</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>696800</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8103,10 +8122,10 @@
         <v>1362000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>698900</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.5131</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>698900</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8124,10 +8143,10 @@
         <v>1358000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>690300</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.5083</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>690300</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8145,10 +8164,10 @@
         <v>1353000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>693200</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.5123</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>693200</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8484,7 +8503,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8563,10 +8582,10 @@
         <v>949704</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1548000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.63</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1548000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>18.55</v>
@@ -8585,10 +8604,10 @@
         <v>765956</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1286000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.6789</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1286000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1.27</v>
@@ -8607,10 +8626,10 @@
         <v>646300</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1100386</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.7026</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1100386</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.11</v>
@@ -8629,10 +8648,10 @@
         <v>566197</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>936061</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.6532</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>936061</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>44.51</v>
@@ -8651,10 +8670,10 @@
         <v>476162</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>780051</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.6382</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>780051</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>9.41</v>
@@ -8673,10 +8692,10 @@
         <v>385314</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>624136</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.6198</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>624136</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.37</v>
@@ -8695,10 +8714,10 @@
         <v>358609</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.6174</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>580000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>13.23</v>
@@ -8717,10 +8736,10 @@
         <v>280018</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>453000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.6178</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>453000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>24.52</v>
@@ -8739,10 +8758,10 @@
         <v>215583</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>350000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.6235</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>350000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>308.75</v>
@@ -8759,10 +8778,10 @@
         <v>192751</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>316135.87</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.6401</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>316135.87</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -8779,10 +8798,10 @@
         <v>175610</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>289563</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.6489</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>289563</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>10</v>
@@ -8801,10 +8820,10 @@
         <v>155286</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>256613</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.6525</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>256613</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>9</v>
@@ -8823,10 +8842,10 @@
         <v>144195</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>238717</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.6555</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>238717</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3</v>
@@ -8845,10 +8864,10 @@
         <v>167356</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>235048</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.4045</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>235048</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -8867,10 +8886,10 @@
         <v>143000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>209524</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.4652</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>209524</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1</v>
@@ -8889,10 +8908,10 @@
         <v>120000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>203000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.6917</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>203000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -8911,10 +8930,10 @@
         <v>109529</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>188532</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.7213</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>188532</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -8933,10 +8952,10 @@
         <v>104607</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>178257</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.7041</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>178257</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -8955,10 +8974,10 @@
         <v>100097</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>170089</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.6992</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>170089</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -8977,10 +8996,10 @@
         <v>85862</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>136776</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.593</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>136776</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -8999,10 +9018,10 @@
         <v>82366</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>124502</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.5116</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>124502</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -9021,10 +9040,10 @@
         <v>78553</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>135540</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.7255</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>135540</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -9043,10 +9062,10 @@
         <v>67925</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>127923</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.8833</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>127923</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -9065,10 +9084,10 @@
         <v>65900</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>123398</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.8725</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>123398</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>977.6</v>
@@ -9087,10 +9106,10 @@
         <v>67000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>118860</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.774</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>118860</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>934.42</v>
@@ -9109,10 +9128,10 @@
         <v>61281</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>105363</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.7193</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>105363</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>460</v>
@@ -9131,10 +9150,10 @@
         <v>60000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>107985</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.7998</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>107985</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>540.03</v>
@@ -9153,10 +9172,10 @@
         <v>49524</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>89655</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.8103</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>89655</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>210</v>
@@ -9175,10 +9194,10 @@
         <v>45880</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>64251</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.4004</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>64251</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>20</v>
@@ -9197,10 +9216,10 @@
         <v>44690</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>71601</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.6022</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>71601</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9217,10 +9236,10 @@
         <v>41376</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>71678</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.7324</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>71678</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9237,10 +9256,10 @@
         <v>41376</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>72053</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.7414</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>72053</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9257,10 +9276,10 @@
         <v>42097</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>71482</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.698</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>71482</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9277,10 +9296,10 @@
         <v>43837</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>74034</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.6888</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>74034</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -9297,10 +9316,10 @@
         <v>40206</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>66960</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.6654</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>66960</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9317,10 +9336,10 @@
         <v>38864</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>60957</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.5685</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>60957</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9337,10 +9356,10 @@
         <v>37378</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>54577</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.4601</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>54577</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9357,10 +9376,10 @@
         <v>35312</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>46814</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.3257</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>46814</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9377,10 +9396,10 @@
         <v>31192</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>38789</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.2436</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>38789</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>14</v>
@@ -9397,10 +9416,10 @@
         <v>26499</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>34056</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.2852</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>34056</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9417,10 +9436,10 @@
         <v>22615</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>28899</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.2779</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>28899</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9437,10 +9456,10 @@
         <v>18996</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>26728</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.407</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>26728</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9457,10 +9476,10 @@
         <v>16578</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>23464</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.4154</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>23464</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9477,10 +9496,10 @@
         <v>14697</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>21626</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.4715</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>21626</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9497,10 +9516,10 @@
         <v>13500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>19284</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.4284</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>19284</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9517,10 +9536,10 @@
         <v>12942</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>18704</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.4452</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>18704</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9537,10 +9556,10 @@
         <v>13000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>17374</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.3365</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>17374</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9557,10 +9576,10 @@
         <v>12692</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16435</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.2949</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16435</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9577,10 +9596,10 @@
         <v>12665</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>16043</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.2667</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>16043</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9597,10 +9616,10 @@
         <v>12289</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16084</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.3088</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16084</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9617,10 +9636,10 @@
         <v>12004</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>14958</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.2461</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>14958</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9637,10 +9656,10 @@
         <v>11306</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>14208</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.2567</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>14208</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9657,10 +9676,10 @@
         <v>10871</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>13493</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.2412</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>13493</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9677,10 +9696,10 @@
         <v>10406</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>10927</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.0501</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>10927</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9697,10 +9716,10 @@
         <v>9353</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8656</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.9255</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8656</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9717,10 +9736,10 @@
         <v>8195</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6870</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.8382999999999999</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6870</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9737,10 +9756,10 @@
         <v>7048</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5857</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.831</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5857</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9756,10 +9775,10 @@
         <v>5852</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4959</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.8473999999999999</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4959</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9775,10 +9794,10 @@
         <v>5314</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3552</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.6684</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3552</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9794,10 +9813,10 @@
         <v>3316</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2045</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.6167</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2045</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9813,10 +9832,10 @@
         <v>1435</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>551</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.384</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>551</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9832,10 +9851,10 @@
         <v>227</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>205</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.9031</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>205</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9851,10 +9870,10 @@
         <v>173</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>82</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.474</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>82</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10188,7 +10207,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10267,10 +10286,10 @@
         <v>723192</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1270299.48</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.7565</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1270299.48</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>53350.06</v>
@@ -10289,10 +10308,10 @@
         <v>727515</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1338141.63</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.8393</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1338141.63</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>13740</v>
@@ -10311,10 +10330,10 @@
         <v>752373</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1272005.3</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.6907</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1272005.3</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>17443.01</v>
@@ -10333,10 +10352,10 @@
         <v>728764</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1226096.16</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.6824</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1226096.16</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>27228.19</v>
@@ -10355,10 +10374,10 @@
         <v>708733</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1182479.92</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.6684</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1182479.92</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>24242.57</v>
@@ -10377,10 +10396,10 @@
         <v>689486</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1137724.91</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.6501</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1137724.91</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>26979.07</v>
@@ -10399,10 +10418,10 @@
         <v>653213</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1094518.75</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.6756</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1094518.75</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>20521.2</v>
@@ -10421,10 +10440,10 @@
         <v>621370</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1035333.08</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.6662</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1035333.08</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>8676.469999999999</v>
@@ -10443,10 +10462,10 @@
         <v>604349</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1012749.6</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.6758</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1012749.6</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>4307.79</v>
@@ -10465,10 +10484,10 @@
         <v>566537</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>961104</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.6965</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>961104</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>8041.85</v>
@@ -10487,10 +10506,10 @@
         <v>548095</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>946865</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.7276</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>946865</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>7070</v>
@@ -10509,10 +10528,10 @@
         <v>509885</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>877111</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.7202</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>877111</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3638</v>
@@ -10531,10 +10550,10 @@
         <v>459948</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>789635.0600000001</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.7168</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>789635.0600000001</v>
       </c>
       <c r="F24" s="29" t="inlineStr"/>
       <c r="G24" s="29" t="inlineStr"/>
@@ -10549,10 +10568,10 @@
         <v>438563</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>751700</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.714</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>751700</v>
       </c>
       <c r="F25" s="29" t="inlineStr"/>
       <c r="G25" s="29" t="inlineStr"/>
@@ -10567,10 +10586,10 @@
         <v>418973</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>711300</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.6977</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>711300</v>
       </c>
       <c r="F26" s="29" t="inlineStr"/>
       <c r="G26" s="29" t="inlineStr"/>
@@ -10585,10 +10604,10 @@
         <v>399100</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>660000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.6537</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>660000</v>
       </c>
       <c r="F27" s="29" t="inlineStr"/>
       <c r="G27" s="29" t="inlineStr"/>
@@ -10603,10 +10622,10 @@
         <v>377800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>605800</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.6035</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>605800</v>
       </c>
       <c r="F28" s="29" t="inlineStr"/>
       <c r="G28" s="29" t="inlineStr"/>
@@ -10621,10 +10640,10 @@
         <v>356400</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>555400</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.5584</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>555400</v>
       </c>
       <c r="F29" s="29" t="inlineStr"/>
       <c r="G29" s="29" t="inlineStr"/>
@@ -10639,10 +10658,10 @@
         <v>334200</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>481600</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.4411</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>481600</v>
       </c>
       <c r="F30" s="29" t="inlineStr"/>
       <c r="G30" s="29" t="inlineStr"/>
@@ -10657,10 +10676,10 @@
         <v>300800</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>419000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.393</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>419000</v>
       </c>
       <c r="F31" s="29" t="inlineStr"/>
       <c r="G31" s="29" t="inlineStr"/>
@@ -10675,10 +10694,10 @@
         <v>266700</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>363500</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.363</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>363500</v>
       </c>
       <c r="F32" s="29" t="inlineStr"/>
       <c r="G32" s="29" t="inlineStr"/>
@@ -10693,10 +10712,10 @@
         <v>243300</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>298200</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.2256</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>298200</v>
       </c>
       <c r="F33" s="29" t="inlineStr"/>
       <c r="G33" s="29" t="inlineStr"/>
@@ -10711,10 +10730,10 @@
         <v>240600</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>312600</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.2993</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>312600</v>
       </c>
       <c r="F34" s="29" t="inlineStr"/>
       <c r="G34" s="29" t="inlineStr"/>
@@ -10729,10 +10748,10 @@
         <v>231500</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>290800</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.2562</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>290800</v>
       </c>
       <c r="F35" s="29" t="inlineStr"/>
       <c r="G35" s="29" t="inlineStr"/>
@@ -10747,10 +10766,10 @@
         <v>212400</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>248700</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.1709</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>248700</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="inlineStr"/>
@@ -10765,10 +10784,10 @@
         <v>193400</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>193500</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.0005</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>193500</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="inlineStr"/>
@@ -10783,10 +10802,10 @@
         <v>173100</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>186500</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.0774</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>186500</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="inlineStr"/>
@@ -10801,10 +10820,10 @@
         <v>161900</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>142500</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.8802000000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>142500</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="inlineStr"/>
@@ -10819,10 +10838,10 @@
         <v>146900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>124700</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.8489</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>124700</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -10837,10 +10856,10 @@
         <v>137600</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>128771</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.9358</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>128771</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -10855,10 +10874,10 @@
         <v>123800</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>96880</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.7826000000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>96880</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -10873,10 +10892,10 @@
         <v>87300</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>67000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.7675</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>67000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -10891,10 +10910,10 @@
         <v>89900</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>64563</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7182000000000001</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>64563</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -10909,10 +10928,10 @@
         <v>81100</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>57939</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.7143999999999999</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>57939</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -10927,10 +10946,10 @@
         <v>69400</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>50600</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.7291</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>50600</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -10945,10 +10964,10 @@
         <v>64900</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>49700</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.7657999999999999</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>49700</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -10963,10 +10982,10 @@
         <v>65900</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>51700</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.7845</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>51700</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -10981,10 +11000,10 @@
         <v>65900</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.7587</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>50000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -10999,10 +11018,10 @@
         <v>63700</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>47867</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.7514</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>47867</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -11017,10 +11036,10 @@
         <v>62600</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>47225</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.7544</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>47225</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -11035,10 +11054,10 @@
         <v>62900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>47215</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.7506</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>47215</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -11053,10 +11072,10 @@
         <v>60800</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>46018</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.7569</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>46018</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -11071,10 +11090,10 @@
         <v>60800</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>43578</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.7167</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>43578</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -11089,10 +11108,10 @@
         <v>58500</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>41000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.7009</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>41000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -11107,10 +11126,10 @@
         <v>83100</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>42505</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.5115</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>42505</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -11125,10 +11144,10 @@
         <v>84200</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>41389</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.4916</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>41389</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -11143,10 +11162,10 @@
         <v>78100</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>43348</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.555</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>43348</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -11161,10 +11180,10 @@
         <v>76600</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>40226</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.5251</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>40226</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -11179,10 +11198,10 @@
         <v>81200</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>24200</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.298</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>24200</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -11197,10 +11216,10 @@
         <v>90000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>21979</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.2442</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>21979</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -11215,10 +11234,10 @@
         <v>95000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>20600</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.2168</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>20600</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -11233,10 +11252,10 @@
         <v>98000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>22994</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.2346</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>22994</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -11251,10 +11270,10 @@
         <v>102500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>37500</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.3659</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>37500</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -11269,10 +11288,10 @@
         <v>106000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>33000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.3113</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>33000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -11287,10 +11306,10 @@
         <v>108000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>31850</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.2949</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>31850</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -11305,10 +11324,10 @@
         <v>110000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>34295</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.3118</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>34295</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -11323,10 +11342,10 @@
         <v>116000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>47310</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.4078</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>47310</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -11340,10 +11359,10 @@
         <v>126100</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>49500</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.3925</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>49500</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -11357,10 +11376,10 @@
         <v>130200</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>64800</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.4977</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>64800</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -11374,10 +11393,10 @@
         <v>128000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>79200</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.6187999999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>79200</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -11391,10 +11410,10 @@
         <v>126000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>81180</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.6443</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>81180</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -11408,10 +11427,10 @@
         <v>124000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>82870</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.6683</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>82870</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -11425,10 +11444,10 @@
         <v>122900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>78100</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.6355</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>78100</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -11760,7 +11779,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11839,10 +11858,10 @@
         <v>731985</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>864770.46</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.1814</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>864770.46</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>457890.55</v>
@@ -11861,10 +11880,10 @@
         <v>719714</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>861675</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.1972</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>861675</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>658115.4300000001</v>
@@ -11883,10 +11902,10 @@
         <v>746000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>871600</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.1684</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>871600</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>549390.34</v>
@@ -11905,10 +11924,10 @@
         <v>745000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>826348</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.1092</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>826348</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>570253.01</v>
@@ -11927,10 +11946,10 @@
         <v>707102</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>839909</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.1878</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>839909</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>554422.05</v>
@@ -11949,10 +11968,10 @@
         <v>693838</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>824093</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.1877</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>824093</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>590661.73</v>
@@ -11971,10 +11990,10 @@
         <v>703097</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>817366</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.1625</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>817366</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>494110.03</v>
@@ -11993,10 +12012,10 @@
         <v>701244</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>815938</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.1636</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>815938</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>424083.96</v>
@@ -12015,10 +12034,10 @@
         <v>715200</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>816103</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.1411</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>816103</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>376917.92</v>
@@ -12037,10 +12056,10 @@
         <v>678148</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>840171</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.2389</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>840171</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>365959.35</v>
@@ -12059,10 +12078,10 @@
         <v>685900</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>864806</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.2608</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>864806</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>335620</v>
@@ -12081,10 +12100,10 @@
         <v>650850</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>802255</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.2326</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>802255</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>317783</v>
@@ -12103,10 +12122,10 @@
         <v>597770</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>750852</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.2561</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>750852</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>270477</v>
@@ -12125,10 +12144,10 @@
         <v>576960</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>690812</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.1973</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>690812</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>251235</v>
@@ -12147,10 +12166,10 @@
         <v>536500</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>618866</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.1535</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>618866</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>300079</v>
@@ -12169,10 +12188,10 @@
         <v>517150</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>547861</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.0594</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>547861</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>246201</v>
@@ -12191,10 +12210,10 @@
         <v>476000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>588380</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.2361</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>588380</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>240238</v>
@@ -12213,10 +12232,10 @@
         <v>477000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>537982</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.1278</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>537982</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>257138</v>
@@ -12235,10 +12254,10 @@
         <v>464800</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>513618</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.105</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>513618</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>181566</v>
@@ -12257,10 +12276,10 @@
         <v>454300</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>574739</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.2651</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>574739</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>189551</v>
@@ -12279,10 +12298,10 @@
         <v>435500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>565045</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.2975</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>565045</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>129639</v>
@@ -12301,10 +12320,10 @@
         <v>428800</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>527413</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.23</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>527413</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>99040</v>
@@ -12323,10 +12342,10 @@
         <v>416670</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>477437</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.1458</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>477437</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>99847</v>
@@ -12345,10 +12364,10 @@
         <v>421380</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>481571</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.1428</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>481571</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>45915.66</v>
@@ -12367,10 +12386,10 @@
         <v>417970</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>489991</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.1723</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>489991</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>35342</v>
@@ -12389,10 +12408,10 @@
         <v>407500</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>462344</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.1346</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>462344</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>39657</v>
@@ -12411,10 +12430,10 @@
         <v>407300</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>451970</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.1097</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>451970</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>43575</v>
@@ -12433,10 +12452,10 @@
         <v>395000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>402450</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.0189</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>402450</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>45363</v>
@@ -12455,10 +12474,10 @@
         <v>395460</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>424025</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.0722</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>424025</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>28254</v>
@@ -12477,10 +12496,10 @@
         <v>417000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>374002</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.8969</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>374002</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>32245</v>
@@ -12499,10 +12518,10 @@
         <v>425000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>326062</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.7672</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>326062</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>22790</v>
@@ -12521,10 +12540,10 @@
         <v>405990</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>309348</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.762</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>309348</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>23198</v>
@@ -12543,10 +12562,10 @@
         <v>420000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>296353</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7056</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>296353</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>10295</v>
@@ -12565,10 +12584,10 @@
         <v>390000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>264248</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.6776</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>264248</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>4143</v>
@@ -12587,10 +12606,10 @@
         <v>365000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>242766</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.6651</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>242766</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>28842</v>
@@ -12609,10 +12628,10 @@
         <v>365000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.6575</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>240000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>58518</v>
@@ -12631,10 +12650,10 @@
         <v>365000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>238000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.6521</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>238000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>10491</v>
@@ -12653,10 +12672,10 @@
         <v>320000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>209709</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.6553</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>209709</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>11060</v>
@@ -12675,10 +12694,10 @@
         <v>300000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>187900</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.6263</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>187900</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12694,10 +12713,10 @@
         <v>1984</v>
       </c>
       <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="n">
+      <c r="D51" s="29" t="n">
         <v>188779</v>
       </c>
+      <c r="E51" s="29" t="inlineStr"/>
       <c r="F51" s="29" t="n">
         <v>0</v>
       </c>
@@ -12712,10 +12731,10 @@
         <v>1983</v>
       </c>
       <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="n">
+      <c r="D52" s="29" t="n">
         <v>172400</v>
       </c>
+      <c r="E52" s="29" t="inlineStr"/>
       <c r="F52" s="29" t="n">
         <v>0</v>
       </c>
@@ -12730,10 +12749,10 @@
         <v>1982</v>
       </c>
       <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="n">
+      <c r="D53" s="29" t="n">
         <v>152600</v>
       </c>
+      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
@@ -12748,10 +12767,10 @@
         <v>1981</v>
       </c>
       <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="n">
+      <c r="D54" s="29" t="n">
         <v>127700</v>
       </c>
+      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
@@ -12766,10 +12785,10 @@
         <v>1980</v>
       </c>
       <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="n">
+      <c r="D55" s="29" t="n">
         <v>113000</v>
       </c>
+      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
@@ -12784,10 +12803,10 @@
         <v>1979</v>
       </c>
       <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
+      <c r="D56" s="29" t="n">
         <v>108300</v>
       </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
@@ -12802,10 +12821,10 @@
         <v>1978</v>
       </c>
       <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
+      <c r="D57" s="29" t="n">
         <v>101600</v>
       </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
@@ -12820,10 +12839,10 @@
         <v>1977</v>
       </c>
       <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
+      <c r="D58" s="29" t="n">
         <v>91700</v>
       </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -12838,10 +12857,10 @@
         <v>1976</v>
       </c>
       <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
+      <c r="D59" s="29" t="n">
         <v>78800</v>
       </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -12856,10 +12875,10 @@
         <v>1975</v>
       </c>
       <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
+      <c r="D60" s="29" t="n">
         <v>68600</v>
       </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -12874,10 +12893,10 @@
         <v>1974</v>
       </c>
       <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
+      <c r="D61" s="29" t="n">
         <v>46800</v>
       </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -12892,10 +12911,10 @@
         <v>1973</v>
       </c>
       <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
+      <c r="D62" s="29" t="n">
         <v>54300</v>
       </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -12910,10 +12929,10 @@
         <v>1972</v>
       </c>
       <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
+      <c r="D63" s="29" t="n">
         <v>49900</v>
       </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -12928,10 +12947,10 @@
         <v>1971</v>
       </c>
       <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
+      <c r="D64" s="29" t="n">
         <v>52400</v>
       </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -12946,10 +12965,10 @@
         <v>1970</v>
       </c>
       <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
+      <c r="D65" s="29" t="n">
         <v>46200</v>
       </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -12964,10 +12983,10 @@
         <v>1969</v>
       </c>
       <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
+      <c r="D66" s="29" t="n">
         <v>32400</v>
       </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -12982,10 +13001,10 @@
         <v>1968</v>
       </c>
       <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
+      <c r="D67" s="29" t="n">
         <v>21500</v>
       </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -13000,10 +13019,10 @@
         <v>1967</v>
       </c>
       <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
+      <c r="D68" s="29" t="n">
         <v>25100</v>
       </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -13017,10 +13036,10 @@
         <v>1966</v>
       </c>
       <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
+      <c r="D69" s="29" t="n">
         <v>23000</v>
       </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -13034,10 +13053,10 @@
         <v>1965</v>
       </c>
       <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
+      <c r="D70" s="29" t="n">
         <v>16600</v>
       </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -13051,10 +13070,10 @@
         <v>1964</v>
       </c>
       <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
+      <c r="D71" s="29" t="n">
         <v>1100</v>
       </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -13068,10 +13087,10 @@
         <v>1963</v>
       </c>
       <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
+      <c r="D72" s="29" t="n">
         <v>6700</v>
       </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -13085,10 +13104,10 @@
         <v>1962</v>
       </c>
       <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
+      <c r="D73" s="29" t="n">
         <v>5100</v>
       </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -13102,10 +13121,10 @@
         <v>1961</v>
       </c>
       <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
+      <c r="D74" s="29" t="n">
         <v>3900</v>
       </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
